--- a/cta策略/result/螺纹/BOLL_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/BOLL_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1506845305915989</v>
+        <v>0.1861902156112485</v>
       </c>
       <c r="D2">
-        <v>0.4974412066054413</v>
+        <v>0.6472093867822137</v>
       </c>
       <c r="E2">
-        <v>0.3098205528645757</v>
+        <v>0.5430545822527821</v>
       </c>
       <c r="F2">
-        <v>0.8125</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/BOLL_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/BOLL_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1861902156112485</v>
+        <v>0.251654900040801</v>
       </c>
       <c r="D2">
-        <v>0.6472093867822137</v>
+        <v>0.9206680488160411</v>
       </c>
       <c r="E2">
-        <v>0.5430545822527821</v>
+        <v>0.8539807759566893</v>
       </c>
       <c r="F2">
-        <v>0.7222222222222222</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
   </sheetData>
